--- a/biology/Botanique/Cordia_dentata/Cordia_dentata.xlsx
+++ b/biology/Botanique/Cordia_dentata/Cordia_dentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordia dentata est une espèce de plantes à fleurs de la famille des Boraginaceae.
-Il est originaire du sud des États-Unis, du Mexique, de l'Amérique centrale, de la Colombie et du Venezuela. Dans les Caraïbes, on la trouve en Jamaïque, à Cuba, dans les île Virgin et à Puerto Rico. Elle est présente également à Madagascar[1].
-C'est un arbre qui pousse principalement dans le biome tropical saisonnier sec[2].
+Il est originaire du sud des États-Unis, du Mexique, de l'Amérique centrale, de la Colombie et du Venezuela. Dans les Caraïbes, on la trouve en Jamaïque, à Cuba, dans les île Virgin et à Puerto Rico. Elle est présente également à Madagascar.
+C'est un arbre qui pousse principalement dans le biome tropical saisonnier sec.
 Cordia dentata est utilisé comme médicament et comme aliment.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Taxinomie[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes homotypiques
 Carpiphea dentata (Poir.) Raf. in Sylva Tellur.: 39 (1838)
